--- a/loaded_influencer_data/itz.aprilm/itz.aprilm_video.xlsx
+++ b/loaded_influencer_data/itz.aprilm/itz.aprilm_video.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2371</v>
+        <v>2376</v>
       </c>
       <c r="C3" t="n">
         <v>183</v>
@@ -580,23 +580,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>It was so hard finding good ones 😂 @Isabella #senioryear #classof2025</t>
+          <t>Personal uber time 😝 @Rare Beauty @Maybelline NY @e.l.f. Cosmetics @Physicians Formula</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7.9291438211725</v>
+        <v>7.912457912457913</v>
       </c>
       <c r="I3" t="n">
-        <v>7.71826233656685</v>
+        <v>7.702020202020202</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2108814846056516</v>
+        <v>0.2104377104377104</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2530577815267819</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927</v>
+        <v>952</v>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15.64185544768069</v>
+        <v>15.33613445378151</v>
       </c>
       <c r="I4" t="n">
-        <v>13.70010787486516</v>
+        <v>13.55042016806723</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.941747572815534</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3236245954692557</v>
+        <v>0.3151260504201681</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -686,16 +686,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13.29179646936656</v>
+        <v>13.03030303030303</v>
       </c>
       <c r="I5" t="n">
-        <v>12.14953271028037</v>
+        <v>12.02020202020202</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.142263759086189</v>
+        <v>1.01010101010101</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1092</v>
+        <v>1121</v>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -732,20 +732,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dads clothes 😝 #chola #mexican</t>
+          <t>They’ll never understand 🤦🏽‍♀️ #anxiety #18</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11.72161172161172</v>
+        <v>12.04281891168599</v>
       </c>
       <c r="I6" t="n">
-        <v>10.71428571428571</v>
+        <v>11.68599464763604</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.007326007326007</v>
+        <v>0.3568242640499554</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -766,46 +766,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dads clothes 😝 #chola #mexican</t>
+          <t>This was a struggle #senioryear #classof2025 #elf #rarebeauty #prettysmartcosmetics #charolettetilbury</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>12.37911025145068</v>
+        <v>12.06896551724138</v>
       </c>
       <c r="I7" t="n">
-        <v>11.31528046421663</v>
+        <v>11.39846743295019</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.063829787234043</v>
+        <v>0.6704980842911877</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.09578544061302681</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
@@ -816,46 +816,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="C8" t="n">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dads clothes 😝 #chola #mexican</t>
+          <t>Goodbye TikTok, toilet time will be boring now 🥲 #willbemissed #endofanera #boring</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.579100145137881</v>
+        <v>17.88031723143475</v>
       </c>
       <c r="I8" t="n">
-        <v>9.361393323657474</v>
+        <v>17.59192501802451</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177068214804064</v>
+        <v>0.2883922134102379</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.2162941600576784</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C9" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -882,30 +882,30 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>This was a struggle #senioryear #classof2025 #elf #rarebeauty #prettysmartcosmetics #charolettetilbury</t>
+          <t>Chrsitmas haul 🎄🎁 #merrychristmas #hauls</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11.55268022181146</v>
+        <v>14.76014760147601</v>
       </c>
       <c r="I9" t="n">
-        <v>10.90573012939002</v>
+        <v>14.39114391143911</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6469500924214419</v>
+        <v>0.3690036900369004</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09242144177449169</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-12-26</t>
         </is>
       </c>
     </row>
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C10" t="n">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -932,30 +932,30 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>This was a struggle #senioryear #classof2025 #elf #rarebeauty #prettysmartcosmetics #charolettetilbury</t>
+          <t>Senior backpack pt. 2 @Isabella #senioryear #classof2025</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>11.68224299065421</v>
+        <v>14.56582633053221</v>
       </c>
       <c r="I10" t="n">
-        <v>11.02803738317757</v>
+        <v>14.09897292250233</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6542056074766356</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09345794392523366</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-12-5</t>
         </is>
       </c>
     </row>
